--- a/results/WorldUnknown/MeansAndSTDCont.xlsx
+++ b/results/WorldUnknown/MeansAndSTDCont.xlsx
@@ -1,82 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luker\source\repos\ReinforcementLearning\results\WorldUnknown\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7019AE-EB77-486B-9E9C-AA97E7CB5186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12552" windowWidth="23232" xWindow="-96" yWindow="-96"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>discount</t>
-  </si>
-  <si>
-    <t>maxExpReward</t>
-  </si>
-  <si>
-    <t>maxNumTries</t>
-  </si>
-  <si>
-    <t>radius</t>
-  </si>
-  <si>
-    <t>Qlearn - Mean</t>
-  </si>
-  <si>
-    <t>Qlearn - STD</t>
-  </si>
-  <si>
-    <t>SARSA0.25 - Mean</t>
-  </si>
-  <si>
-    <t>SARSA0.25 - STD</t>
-  </si>
-  <si>
-    <t>SARSA0.5 - Mean</t>
-  </si>
-  <si>
-    <t>SARSA0.50 - STD</t>
-  </si>
-  <si>
-    <t>SARSA0.75 - Mean</t>
-  </si>
-  <si>
-    <t>SARSA0.75 - STD</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -92,24 +43,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -375,73 +385,1578 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="A2:M2"/>
+      <selection activeCell="A2" sqref="A2:M82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.3125" customWidth="1"/>
-    <col min="2" max="2" width="7.3125" customWidth="1"/>
-    <col min="3" max="3" width="13.20703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7890625" customWidth="1"/>
-    <col min="5" max="5" width="6.15625" customWidth="1"/>
-    <col min="6" max="6" width="12.7890625" customWidth="1"/>
-    <col min="7" max="7" width="10.68359375" customWidth="1"/>
-    <col min="8" max="8" width="15.5234375" customWidth="1"/>
-    <col min="9" max="9" width="13.5234375" customWidth="1"/>
-    <col min="10" max="10" width="14.20703125" customWidth="1"/>
-    <col min="11" max="11" width="13.83984375" customWidth="1"/>
-    <col min="12" max="12" width="15.5234375" customWidth="1"/>
-    <col min="13" max="13" width="14.1015625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="5.3125"/>
+    <col customWidth="1" max="2" min="2" width="7.3125"/>
+    <col customWidth="1" max="3" min="3" width="13.20703125"/>
+    <col customWidth="1" max="4" min="4" width="11.7890625"/>
+    <col customWidth="1" max="5" min="5" width="6.15625"/>
+    <col customWidth="1" max="6" min="6" width="12.7890625"/>
+    <col customWidth="1" max="7" min="7" width="10.68359375"/>
+    <col customWidth="1" max="8" min="8" width="15.5234375"/>
+    <col customWidth="1" max="9" min="9" width="13.5234375"/>
+    <col customWidth="1" max="10" min="10" width="14.20703125"/>
+    <col customWidth="1" max="11" min="11" width="13.83984375"/>
+    <col customWidth="1" max="12" min="12" width="15.5234375"/>
+    <col customWidth="1" max="13" min="13" width="14.1015625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>discount</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>maxExpReward</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>maxNumTries</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>radius</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Qlearn - Mean</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Qlearn - STD</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>SARSA0.25 - Mean</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>SARSA0.25 - STD</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>SARSA0.5 - Mean</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>SARSA0.50 - STD</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>SARSA0.75 - Mean</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>SARSA0.75 - STD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.297</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.311</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.307</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.273</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.347</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.287</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.302</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.315</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.321</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.267</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.296</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.276</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.306</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.218</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.323</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.328</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.307</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.241</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.321</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.313</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.314</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.277</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.307</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.271</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.327</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.241</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.322</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.248</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.239</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.309</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.246</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.316</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.291</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.306</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.222</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.342</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.269</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.320</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.207</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.318</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.254</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.312</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.232</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.337</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.297</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.322</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.219</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.344</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.263</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.344</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.238</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.317</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.314</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.307</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.288</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.309</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.263</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.329</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.302</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.325</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.221</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0.332</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.231</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.326</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.271</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.349</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.284</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.314</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.240</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.317</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.292</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.319</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.313</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.269</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.265</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.314</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.271</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.298</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.249</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.318</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.245</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.287</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.287</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.299</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.168</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.359</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.273</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.333</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.233</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.349</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.259</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.354</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.266</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.356</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.234</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.327</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.250</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.308</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.218</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.316</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.222</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0.335</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.259</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.333</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.254</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.325</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.268</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.293</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0.171</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0.341</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.256</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.293</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.291</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.315</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0.194</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0.322</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.195</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.337</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.258</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.320</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.249</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.333</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0.242</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0.320</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.197</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0.323</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.317</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.193</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.340</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0.268</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0.319</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0.270</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.316</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>100</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.179</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.323</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.216</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.315</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0.223</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0.328</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.205</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.328</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>50</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.304</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.332</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.225</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.302</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0.255</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0.279</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0.229</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.314</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>100</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.204</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.322</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.235</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.346</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.222</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.331</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.204</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.328</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>100</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.270</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.324</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.257</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.303</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.210</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.335</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0.196</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0.352</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>50</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.217</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.206</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.336</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.264</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0.293</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0.184</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0.356</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.287</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.332</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.286</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.292</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0.297</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0.289</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.277</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.324</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>50</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.230</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.316</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.217</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.337</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0.240</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.324</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0.298</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0.307</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>world1Cont</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>50</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.253</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.306</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.260</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.326</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0.230</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0.323</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0.255</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0.343</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/results/WorldUnknown/MeansAndSTDCont.xlsx
+++ b/results/WorldUnknown/MeansAndSTDCont.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:M232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
@@ -9330,6 +9330,4785 @@
         </is>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>100</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>-0.075</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.044</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>-0.054</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>0.075</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>-0.048</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>0.082</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>-0.060</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>0.067</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>50</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>-0.083</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.043</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>-0.089</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>0.031</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>-0.041</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>0.092</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>-0.078</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D154" t="n">
+        <v>100</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>-0.056</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.052</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>-0.059</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>0.051</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>-0.058</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>0.055</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>-0.063</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>0.042</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>100</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>-0.079</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.041</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>-0.057</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>0.066</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>-0.070</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>0.053</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>-0.051</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>0.069</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>100</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>-0.048</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.070</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>-0.051</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>-0.052</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>0.062</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>-0.051</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>0.062</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>50</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>-0.062</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>-0.067</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>0.061</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>-0.073</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>0.042</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>-0.077</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>0.042</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>100</v>
+      </c>
+      <c r="E158" t="n">
+        <v>5</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>-0.046</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.077</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>-0.037</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>0.092</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>-0.085</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>0.026</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>-0.091</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>0.033</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>50</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>-0.049</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.084</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>-0.069</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>0.068</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>-0.086</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>0.037</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>-0.086</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>0.045</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D160" t="n">
+        <v>50</v>
+      </c>
+      <c r="E160" t="n">
+        <v>5</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.018</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>-0.033</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>0.102</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>-0.068</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>0.077</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>-0.080</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>0.059</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D161" t="n">
+        <v>100</v>
+      </c>
+      <c r="E161" t="n">
+        <v>5</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>-0.061</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.073</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>-0.088</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>-0.083</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>-0.046</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>0.086</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>50</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>-0.049</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.093</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>-0.089</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>0.039</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>0.025</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>-0.084</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>0.058</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>50</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>-0.081</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.041</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>-0.071</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>0.056</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>-0.069</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>0.053</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>-0.061</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>0.063</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>10</v>
+      </c>
+      <c r="E164" t="n">
+        <v>5</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>-0.094</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.033</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>0.017</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>0.039</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>0.014</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D165" t="n">
+        <v>10</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>-0.093</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.037</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>-0.086</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>0.029</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>0.032</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>10</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.026</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>-0.097</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>0.020</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>0.019</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>0.029</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>10</v>
+      </c>
+      <c r="E167" t="n">
+        <v>5</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.019</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>-0.097</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>0.022</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>-0.057</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>0.089</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>-0.097</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>0.012</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>10</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>-0.093</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.024</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>-0.085</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>0.054</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>-0.080</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>0.058</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>-0.082</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>0.049</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D169" t="n">
+        <v>10</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>-0.094</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.026</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>-0.080</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>0.056</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>-0.085</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>-0.090</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>0.049</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>100</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>-0.054</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.072</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>-0.046</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>0.076</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>-0.061</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>0.064</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>-0.046</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>0.076</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>100</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>-0.086</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.042</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>-0.054</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>0.078</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>-0.057</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>0.074</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>-0.050</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>0.084</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5</v>
+      </c>
+      <c r="D172" t="n">
+        <v>100</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>-0.052</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.053</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>-0.055</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>0.059</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>-0.048</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>0.071</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>-0.052</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>0.063</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" t="n">
+        <v>100</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>-0.087</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>-0.080</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>0.054</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>-0.077</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>-0.086</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>0.036</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>100</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>-0.052</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.073</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>-0.048</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>0.075</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>-0.054</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>0.071</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>-0.066</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>0.043</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>50</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>-0.087</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.051</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>-0.078</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>0.062</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>-0.093</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>0.033</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>-0.091</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>0.033</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>100</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>-0.059</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.058</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>-0.082</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>0.043</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>-0.080</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>0.052</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>-0.086</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>0.036</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>5</v>
+      </c>
+      <c r="D177" t="n">
+        <v>50</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>-0.049</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.086</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>-0.074</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>0.054</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>-0.049</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>0.086</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>-0.082</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>0.043</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>50</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>-0.076</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.049</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>-0.069</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>0.062</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>-0.075</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>-0.069</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>0.062</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>10</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>-0.093</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.032</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>0.036</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>-0.094</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>0.031</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>0.039</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>50</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>-0.094</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.028</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>-0.087</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>0.048</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>0.023</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>0.017</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>50</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>-0.061</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.071</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>-0.079</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>0.058</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>-0.093</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>0.024</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>-0.086</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>0.039</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>10</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>-0.094</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.022</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>-0.078</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>0.068</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>0.025</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>-0.090</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>0.051</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5</v>
+      </c>
+      <c r="D183" t="n">
+        <v>10</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.029</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>0.025</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>0.010</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>0.024</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5</v>
+      </c>
+      <c r="D184" t="n">
+        <v>10</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.028</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>0.027</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>-0.068</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>0.081</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>50</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>-0.066</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.058</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>-0.074</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>0.061</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>-0.052</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>0.078</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>-0.061</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>0.062</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>10</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>-0.078</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.062</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>-0.081</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>0.049</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>-0.088</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>0.044</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>-0.087</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>0.042</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5</v>
+      </c>
+      <c r="D187" t="n">
+        <v>10</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>-0.090</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.033</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>-0.087</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>0.051</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>-0.091</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>-0.084</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>0.053</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>100</v>
+      </c>
+      <c r="E188" t="n">
+        <v>5</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>-0.076</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.062</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>-0.040</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>0.079</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>-0.055</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>0.078</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>-0.051</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>0.079</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5</v>
+      </c>
+      <c r="D189" t="n">
+        <v>100</v>
+      </c>
+      <c r="E189" t="n">
+        <v>5</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>-0.086</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>-0.079</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>0.061</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>-0.081</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>0.048</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>-0.060</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>0.076</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C190" t="n">
+        <v>5</v>
+      </c>
+      <c r="D190" t="n">
+        <v>100</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>-0.076</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>-0.035</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>0.077</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>-0.042</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>0.073</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>-0.079</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>0.036</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C191" t="n">
+        <v>5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>100</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>-0.062</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.055</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>-0.051</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>0.066</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>-0.066</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>0.058</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>-0.060</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>0.069</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>50</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>-0.072</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.049</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>-0.064</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>0.056</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>-0.075</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>0.055</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>-0.061</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>0.070</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C193" t="n">
+        <v>5</v>
+      </c>
+      <c r="D193" t="n">
+        <v>50</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>-0.075</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.061</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>-0.070</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>0.054</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>-0.070</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>0.059</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>-0.075</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>0.048</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D194" t="n">
+        <v>100</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>-0.073</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>-0.072</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>0.049</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>-0.071</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>0.055</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>-0.077</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>0.041</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D195" t="n">
+        <v>50</v>
+      </c>
+      <c r="E195" t="n">
+        <v>5</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>-0.032</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.095</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>-0.093</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>-0.089</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>0.041</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>-0.088</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>0.042</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D196" t="n">
+        <v>100</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>-0.063</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.056</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>-0.061</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>-0.057</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>0.062</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>-0.049</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>0.072</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C197" t="n">
+        <v>5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>50</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>-0.088</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.036</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>-0.080</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>0.067</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>-0.058</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>0.072</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>-0.079</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>0.059</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D198" t="n">
+        <v>50</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>-0.090</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.031</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>-0.072</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>-0.081</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>0.051</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>-0.077</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>0.062</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C199" t="n">
+        <v>5</v>
+      </c>
+      <c r="D199" t="n">
+        <v>10</v>
+      </c>
+      <c r="E199" t="n">
+        <v>5</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.012</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>-0.085</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>0.026</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D200" t="n">
+        <v>10</v>
+      </c>
+      <c r="E200" t="n">
+        <v>5</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>-0.094</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>-0.094</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>-0.089</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>0.044</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5</v>
+      </c>
+      <c r="D201" t="n">
+        <v>50</v>
+      </c>
+      <c r="E201" t="n">
+        <v>5</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.029</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>-0.073</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>0.067</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>0.020</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>-0.085</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>0.054</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C202" t="n">
+        <v>5</v>
+      </c>
+      <c r="D202" t="n">
+        <v>10</v>
+      </c>
+      <c r="E202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>-0.075</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.063</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>0.031</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>-0.094</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>0.033</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D203" t="n">
+        <v>10</v>
+      </c>
+      <c r="E203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.021</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>-0.087</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>0.023</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>0.028</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C204" t="n">
+        <v>5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>10</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>-0.084</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.044</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>-0.090</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>-0.094</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>0.025</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>0.027</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D205" t="n">
+        <v>10</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>-0.087</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.043</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>0.026</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>-0.091</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>0.028</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>-0.088</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="n">
+        <v>100</v>
+      </c>
+      <c r="E206" t="n">
+        <v>5</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>-0.050</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.073</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>-0.053</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>0.076</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>-0.083</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>0.044</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>-0.036</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D207" t="n">
+        <v>100</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>-0.058</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.067</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>-0.060</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>0.059</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>-0.062</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>0.059</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>-0.055</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>0.067</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D208" t="n">
+        <v>100</v>
+      </c>
+      <c r="E208" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>-0.068</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>-0.079</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>0.055</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>-0.079</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>0.042</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>-0.086</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+      <c r="D209" t="n">
+        <v>50</v>
+      </c>
+      <c r="E209" t="n">
+        <v>5</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>-0.093</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>-0.097</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>0.017</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>-0.091</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>-0.091</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>0.035</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+      <c r="D210" t="n">
+        <v>100</v>
+      </c>
+      <c r="E210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>-0.062</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.059</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>-0.082</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>-0.078</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>0.043</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>-0.056</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>0.063</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+      <c r="D211" t="n">
+        <v>100</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>-0.055</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.071</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>-0.058</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>0.067</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>-0.061</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>0.053</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>-0.057</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>0.073</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+      <c r="D212" t="n">
+        <v>10</v>
+      </c>
+      <c r="E212" t="n">
+        <v>5</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.033</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>0.015</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>0.030</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D213" t="n">
+        <v>10</v>
+      </c>
+      <c r="E213" t="n">
+        <v>5</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.023</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>-0.097</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>0.020</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>0.024</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D214" t="n">
+        <v>50</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>-0.064</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.056</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>-0.093</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>0.024</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>-0.085</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>0.033</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>-0.072</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>0.069</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+      <c r="D215" t="n">
+        <v>50</v>
+      </c>
+      <c r="E215" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>-0.070</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>-0.091</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>0.023</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>-0.088</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>0.036</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>-0.090</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>0.025</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D216" t="n">
+        <v>100</v>
+      </c>
+      <c r="E216" t="n">
+        <v>5</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>-0.070</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.048</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>-0.040</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>0.088</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>-0.085</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>0.044</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>-0.079</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D217" t="n">
+        <v>50</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>-0.077</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.052</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>-0.074</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>0.057</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>-0.073</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>0.054</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>-0.062</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>0.065</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D218" t="n">
+        <v>50</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>-0.070</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.062</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>-0.074</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>0.056</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>-0.077</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>0.052</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>-0.071</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>0.068</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D219" t="n">
+        <v>50</v>
+      </c>
+      <c r="E219" t="n">
+        <v>5</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>-0.093</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.030</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>-0.075</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>0.070</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>0.042</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>0.041</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D220" t="n">
+        <v>10</v>
+      </c>
+      <c r="E220" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>-0.084</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.045</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>0.020</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>0.022</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>0.026</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" t="n">
+        <v>10</v>
+      </c>
+      <c r="E221" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>-0.081</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.041</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>0.024</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>-0.097</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>0.014</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>0.021</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" t="n">
+        <v>10</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>-0.083</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.042</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>-0.094</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>0.019</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>-0.091</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>0.032</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>-0.088</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D223" t="n">
+        <v>10</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>-0.091</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.036</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>-0.087</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>0.045</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>-0.091</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>-0.084</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>0.054</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C224" t="n">
+        <v>5</v>
+      </c>
+      <c r="D224" t="n">
+        <v>100</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>-0.065</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.046</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>-0.063</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>0.062</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>-0.057</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>0.063</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>-0.063</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>0.059</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C225" t="n">
+        <v>5</v>
+      </c>
+      <c r="D225" t="n">
+        <v>100</v>
+      </c>
+      <c r="E225" t="n">
+        <v>5</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>-0.088</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>-0.085</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>0.040</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>-0.085</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>0.052</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>-0.084</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>0.044</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C226" t="n">
+        <v>5</v>
+      </c>
+      <c r="D226" t="n">
+        <v>50</v>
+      </c>
+      <c r="E226" t="n">
+        <v>5</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>-0.094</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.037</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>-0.059</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>0.074</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>-0.060</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>0.092</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>0.037</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C227" t="n">
+        <v>5</v>
+      </c>
+      <c r="D227" t="n">
+        <v>100</v>
+      </c>
+      <c r="E227" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>-0.072</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.052</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>-0.069</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>-0.083</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>-0.076</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>0.055</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C228" t="n">
+        <v>5</v>
+      </c>
+      <c r="D228" t="n">
+        <v>10</v>
+      </c>
+      <c r="E228" t="n">
+        <v>5</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>0.024</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.103</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>0.013</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>0.018</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>0.009</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C229" t="n">
+        <v>5</v>
+      </c>
+      <c r="D229" t="n">
+        <v>10</v>
+      </c>
+      <c r="E229" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>-0.078</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>0.025</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>0.022</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>0.017</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C230" t="n">
+        <v>5</v>
+      </c>
+      <c r="D230" t="n">
+        <v>50</v>
+      </c>
+      <c r="E230" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>-0.091</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.029</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>-0.085</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>0.045</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>-0.090</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>0.033</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>-0.087</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>0.044</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C231" t="n">
+        <v>5</v>
+      </c>
+      <c r="D231" t="n">
+        <v>50</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>-0.069</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.056</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>-0.081</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>0.040</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>-0.077</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>0.049</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>-0.079</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>world3Cont</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C232" t="n">
+        <v>5</v>
+      </c>
+      <c r="D232" t="n">
+        <v>10</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>-0.093</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.024</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>-0.089</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>-0.089</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>0.037</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>-0.091</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>0.029</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>

--- a/results/WorldUnknown/MeansAndSTDCont.xlsx
+++ b/results/WorldUnknown/MeansAndSTDCont.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M232"/>
+  <dimension ref="A1:M259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
@@ -14109,6 +14109,1599 @@
         </is>
       </c>
     </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D233" t="n">
+        <v>10</v>
+      </c>
+      <c r="E233" t="n">
+        <v>5</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
+      <c r="D234" t="n">
+        <v>100</v>
+      </c>
+      <c r="E234" t="n">
+        <v>5</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+      <c r="D235" t="n">
+        <v>10</v>
+      </c>
+      <c r="E235" t="n">
+        <v>5</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D236" t="n">
+        <v>10</v>
+      </c>
+      <c r="E236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D237" t="n">
+        <v>50</v>
+      </c>
+      <c r="E237" t="n">
+        <v>5</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" t="n">
+        <v>10</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0.009</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1</v>
+      </c>
+      <c r="D239" t="n">
+        <v>50</v>
+      </c>
+      <c r="E239" t="n">
+        <v>5</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>-0.093</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0.014</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D240" t="n">
+        <v>100</v>
+      </c>
+      <c r="E240" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D241" t="n">
+        <v>50</v>
+      </c>
+      <c r="E241" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D242" t="n">
+        <v>100</v>
+      </c>
+      <c r="E242" t="n">
+        <v>5</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>100</v>
+      </c>
+      <c r="E243" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>0.008</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+      <c r="D244" t="n">
+        <v>50</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D245" t="n">
+        <v>100</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>-0.097</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>-0.097</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>0.009</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>-0.097</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>-0.097</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>50</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>0.009</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D247" t="n">
+        <v>50</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1</v>
+      </c>
+      <c r="D248" t="n">
+        <v>10</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+      <c r="D249" t="n">
+        <v>100</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>-0.097</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>0.008</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D250" t="n">
+        <v>10</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C251" t="n">
+        <v>5</v>
+      </c>
+      <c r="D251" t="n">
+        <v>50</v>
+      </c>
+      <c r="E251" t="n">
+        <v>5</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C252" t="n">
+        <v>5</v>
+      </c>
+      <c r="D252" t="n">
+        <v>100</v>
+      </c>
+      <c r="E252" t="n">
+        <v>5</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C253" t="n">
+        <v>5</v>
+      </c>
+      <c r="D253" t="n">
+        <v>10</v>
+      </c>
+      <c r="E253" t="n">
+        <v>5</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C254" t="n">
+        <v>5</v>
+      </c>
+      <c r="D254" t="n">
+        <v>50</v>
+      </c>
+      <c r="E254" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C255" t="n">
+        <v>5</v>
+      </c>
+      <c r="D255" t="n">
+        <v>100</v>
+      </c>
+      <c r="E255" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C256" t="n">
+        <v>5</v>
+      </c>
+      <c r="D256" t="n">
+        <v>10</v>
+      </c>
+      <c r="E256" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C257" t="n">
+        <v>5</v>
+      </c>
+      <c r="D257" t="n">
+        <v>100</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>-0.097</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>0.008</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>0.008</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C258" t="n">
+        <v>5</v>
+      </c>
+      <c r="D258" t="n">
+        <v>10</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>world2Cont</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C259" t="n">
+        <v>5</v>
+      </c>
+      <c r="D259" t="n">
+        <v>50</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
